--- a/muntur/training/chat.xlsx
+++ b/muntur/training/chat.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUNTUR AI\API\muntur\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733AC135-E69A-4DA8-89B1-1B1FB46675F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1978F6-AAED-4F1B-89F9-653FB2ED482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="456">
   <si>
     <t>Questions</t>
   </si>
@@ -1358,6 +1359,48 @@
   </si>
   <si>
     <t xml:space="preserve">100 Pourquoi ma voiture a-t-elle des problèmes de voyant ABS allumé ? </t>
+  </si>
+  <si>
+    <t>bjr</t>
+  </si>
+  <si>
+    <t>Bonjour je suis MUNTUR AI, Comment puis-je t'aider aujourd'hui?</t>
+  </si>
+  <si>
+    <t>bonjour</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>Salut</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>hey</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Bonsoir</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>good morning</t>
+  </si>
+  <si>
+    <t>goodnight</t>
+  </si>
+  <si>
+    <t>good afternoon</t>
+  </si>
+  <si>
+    <t>Hi, i'm MUNTUR AI. How can i help you today?</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1770,9 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2945,801 +2990,1264 @@
     </row>
     <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>301</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>303</v>
+        <v>443</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>304</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>305</v>
+        <v>446</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>306</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>307</v>
+        <v>447</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>308</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>309</v>
+        <v>448</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>310</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>311</v>
+        <v>450</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>313</v>
+        <v>449</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>314</v>
+        <v>455</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>315</v>
+        <v>451</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>318</v>
+        <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>319</v>
+        <v>453</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2"/>
+      <c r="B251" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94D7F56-7920-4CD4-A496-AC14AB6A6106}">
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="2" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="2" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="2" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B89" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="2" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="2" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="2" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="2" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="2" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="2" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B95" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="2" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="2" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="2" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="2" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="2" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B100" s="5" t="s">
         <v>356</v>
       </c>
     </row>

--- a/muntur/training/chat.xlsx
+++ b/muntur/training/chat.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MUNTUR AI\API\muntur\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1978F6-AAED-4F1B-89F9-653FB2ED482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6026C9EB-01AF-430A-B2CB-DCA8ED83A30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="salutations" sheetId="4" r:id="rId2"/>
+    <sheet name="english" sheetId="3" r:id="rId3"/>
+    <sheet name="supplement_french" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="752">
   <si>
     <t>Questions</t>
   </si>
@@ -1401,6 +1403,894 @@
   </si>
   <si>
     <t>Hi, i'm MUNTUR AI. How can i help you today?</t>
+  </si>
+  <si>
+    <t>Why won't my car start?</t>
+  </si>
+  <si>
+    <t>Possible causes include a dead battery, starter problem, faulty alternator, or fuel problem.</t>
+  </si>
+  <si>
+    <t>Why does my car make a strange noise while driving?</t>
+  </si>
+  <si>
+    <t>Strange noises can be caused by suspension problems, worn brakes, faulty wheel bearings, or exhaust problems.</t>
+  </si>
+  <si>
+    <t>Why is my car overheating?</t>
+  </si>
+  <si>
+    <t>Overheating could be caused by a low coolant level, a clogged radiator, a faulty thermostat, or a broken water pump.</t>
+  </si>
+  <si>
+    <t>Why does the check engine light come on on the dashboard?</t>
+  </si>
+  <si>
+    <t>The check engine light can come on for many reasons, including a faulty oxygen sensor, catalyst problem, worn spark plugs, or mass air flow sensor problem.</t>
+  </si>
+  <si>
+    <t>Why does my car pull to one side while driving?</t>
+  </si>
+  <si>
+    <t>This can be caused by a wheel alignment problem, uneven tire pressure, seized brakes, or faulty suspension.</t>
+  </si>
+  <si>
+    <t>Why is my brake pedal soft?</t>
+  </si>
+  <si>
+    <t>A soft brake pedal may be due to leaking brake fluid, worn brake pads, air in the brake system, or a faulty master cylinder.</t>
+  </si>
+  <si>
+    <t>Why is my car using more fuel than usual?</t>
+  </si>
+  <si>
+    <t>Excessive fuel consumption can be caused by a dirty air filter, faulty spark plugs, faulty mass air flow sensor, or incorrect tire pressure.</t>
+  </si>
+  <si>
+    <t>Why is my leadership harsh?</t>
+  </si>
+  <si>
+    <t>Hard steering may be caused by low power steering fluid pressure, a worn power steering belt, or faulty steering components (like the rack or seals).</t>
+  </si>
+  <si>
+    <t>Why are my headlights dim?</t>
+  </si>
+  <si>
+    <t>Dim headlights can be caused by worn bulbs, a faulty alternator, a weak battery, or corroded electrical connections.</t>
+  </si>
+  <si>
+    <t>Why does my car smell burning?</t>
+  </si>
+  <si>
+    <t>A burning smell may indicate a problem with the brakes, oil leaking onto hot surfaces, an overheated engine belt, or a faulty clutch.</t>
+  </si>
+  <si>
+    <t>Why does my car vibrate at high speed?</t>
+  </si>
+  <si>
+    <t>Vibrations at high speeds can be caused by wheel imbalance, worn or damaged tires, faulty wheel bearings, or suspension problems.</t>
+  </si>
+  <si>
+    <t>Why are my brakes squealing?</t>
+  </si>
+  <si>
+    <t>Squeaking brakes may be caused by worn brake pads, poor brake rotors, or the presence of dirt or dust on the brake components.</t>
+  </si>
+  <si>
+    <t>Why does my car stall often?</t>
+  </si>
+  <si>
+    <t>Frequent stalls can be caused by a fuel problem (such as a faulty fuel pump or clogged fuel filter), worn spark plugs, or a faulty crankshaft position sensor.</t>
+  </si>
+  <si>
+    <t>Why is my car losing coolant?</t>
+  </si>
+  <si>
+    <t>A coolant leak can be caused by a punctured radiator, cracked cooling hose, faulty water pump, or damaged head gasket.</t>
+  </si>
+  <si>
+    <t>Why is my alternator not charging the battery?</t>
+  </si>
+  <si>
+    <t>An alternator not charging the battery could be due to a worn alternator belt, corroded electrical connections, a faulty voltage regulator, or the alternator itself failing.</t>
+  </si>
+  <si>
+    <t>Why are my windshield wipers not working properly?</t>
+  </si>
+  <si>
+    <t>Wiper problems can be caused by worn blades, a faulty wiper motor, corroded electrical connections, or a blown fuse.</t>
+  </si>
+  <si>
+    <t>Why are my turn signals flashing quickly?</t>
+  </si>
+  <si>
+    <t>Turn signals that flash rapidly may be caused by a burnt out turn signal bulb, a problem with the turn signal relay, or a poor electrical connection.</t>
+  </si>
+  <si>
+    <t>Why is my car having trouble shifting?</t>
+  </si>
+  <si>
+    <t>Difficulty shifting gears can be caused by a low transmission fluid level, an improperly adjusted shift linkage, or a worn clutch.</t>
+  </si>
+  <si>
+    <t>Why does my steering wheel shake when braking?</t>
+  </si>
+  <si>
+    <t>A steering wheel that shakes when braking can be caused by warped brake rotors, worn brake pads, or seized brake calipers.</t>
+  </si>
+  <si>
+    <t>Why does my car lose power when going uphill?</t>
+  </si>
+  <si>
+    <t>Power losses while climbing can be caused by a clogged air filter, faulty mass air flow sensor, faulty fuel pump, or clogged injectors.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a clicking noise?</t>
+  </si>
+  <si>
+    <t>A clicking noise in the engine may be due to a lubrication problem, worn valve stems, faulty hydraulic lifters, or an improperly adjusted timing belt.</t>
+  </si>
+  <si>
+    <t>Why is there smoke coming out of my exhaust?</t>
+  </si>
+  <si>
+    <t>White smoke can indicate a head gasket problem, blue smoke often signals oil consumption, and black smoke can indicate excess fuel in the air/fuel mixture.</t>
+  </si>
+  <si>
+    <t>Why is my cruise control not working?</t>
+  </si>
+  <si>
+    <t>A cruise control that does not work may be caused by a problem with the speed sensor, a faulty electrical connection, or a faulty cruise control switch.</t>
+  </si>
+  <si>
+    <t>Why is my air conditioning not cooling?</t>
+  </si>
+  <si>
+    <t>Air conditioning that is not cooling may be due to a low refrigerant level, a faulty air conditioning compressor, or a condenser problem.</t>
+  </si>
+  <si>
+    <t>Why is my dashboard showing intermittent warnings?</t>
+  </si>
+  <si>
+    <t>Intermittent warnings can be caused by faulty sensors, wiring problems, or errors in the car's electronic system.</t>
+  </si>
+  <si>
+    <t>Why does my car frequently overheat?</t>
+  </si>
+  <si>
+    <t>Frequent overheating can be caused by hot weather conditions, a clogged radiator, lack of coolant, or a faulty thermostat. It is important to regularly check the cooling system and clean the radiator.</t>
+  </si>
+  <si>
+    <t>Why does my car have starting problems in the morning?</t>
+  </si>
+  <si>
+    <t>Starting problems may be due to a weak battery, worn spark plugs, or a fuel problem (such as poor quality gasoline). Make sure the battery is in good condition and the spark plugs are replaced regularly.</t>
+  </si>
+  <si>
+    <t>Why do my tires wear out quickly?</t>
+  </si>
+  <si>
+    <t>Poor road conditions, incorrect tire pressures, poor wheel alignment, or worn suspensions can all contribute to rapid tire wear. It is crucial to check wheel alignment and tire pressure regularly.</t>
+  </si>
+  <si>
+    <t>Why does my car use a lot of oil?</t>
+  </si>
+  <si>
+    <t>Excessive oil consumption may be caused by worn piston rings, faulty head gaskets, or oil leaks. It is important to monitor the oil level and check for leaks.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a clicking noise under load?</t>
+  </si>
+  <si>
+    <t>Knocking under load can be caused by poor quality fuel, carbon deposits in the engine, or improper ignition timing. Use good quality fuel and have the engine cleaned regularly.</t>
+  </si>
+  <si>
+    <t>Why does my clutch slip often?</t>
+  </si>
+  <si>
+    <t>A slipping clutch can be caused by worn clutch plates, improper use of the clutch, or oil leaking from the clutch. Have the clutch checked and replaced if necessary.</t>
+  </si>
+  <si>
+    <t>Why does my car have frequent electrical problems?</t>
+  </si>
+  <si>
+    <t>Electrical problems can be caused by corroded connections, blown fuses, or a faulty alternator. It is essential to regularly check the electrical connections and ensure that the alternator is working properly.</t>
+  </si>
+  <si>
+    <t>Why are my brakes less effective?</t>
+  </si>
+  <si>
+    <t>Reduced brake performance may be due to worn brake pads, poor brake rotors, or brake fluid leaks. Check the condition of the brakes regularly and replace worn components.</t>
+  </si>
+  <si>
+    <t>Why is my car having suspension problems?</t>
+  </si>
+  <si>
+    <t>Rough roads can cause premature wear of suspension components such as shock absorbers, springs and control arms. It is important to have the suspension inspected and maintained regularly.</t>
+  </si>
+  <si>
+    <t>Why is my vehicle having carburetor problems?</t>
+  </si>
+  <si>
+    <t>Carburetors can be sensitive to fuel quality. Dirt or carbon deposits can clog the carburetor. Clean the carburetor regularly and use good quality fuel.</t>
+  </si>
+  <si>
+    <t>Why does my car have corrosion problems?</t>
+  </si>
+  <si>
+    <t>Corrosion can be accelerated by humid or saline climatic conditions. Wash the vehicle regularly, especially under the chassis, to remove dirt and salt, and apply anti-rust treatments.</t>
+  </si>
+  <si>
+    <t>Why do my headlights turn off intermittently?</t>
+  </si>
+  <si>
+    <t>Headlights that turn off intermittently may be caused by loose electrical connections, faulty relays, or blown fuses. Check and secure electrical connections and replace faulty relays or fuses.</t>
+  </si>
+  <si>
+    <t>Why is my engine emitting black smoke?</t>
+  </si>
+  <si>
+    <t>Black smoke can indicate an overly rich air/fuel mixture, often caused by a clogged air filter, clogged fuel injectors, or a faulty mass air flow sensor. Clean or replace the air filter and have the injectors checked.</t>
+  </si>
+  <si>
+    <t>Why is my car having transmission problems?</t>
+  </si>
+  <si>
+    <t>Transmission problems can be caused by a lack of transmission fluid, worn gears, or improper use of the transmission. Make sure the transmission fluid is at the correct level and is replaced according to the manufacturer's recommendations.</t>
+  </si>
+  <si>
+    <t>Why is my engine lacking power?</t>
+  </si>
+  <si>
+    <t>An engine that lacks power could be due to a clogged air filter, a fuel problem, or worn spark plugs. Check and replace these components if necessary.</t>
+  </si>
+  <si>
+    <t>Why is my car having trouble accelerating?</t>
+  </si>
+  <si>
+    <t>Difficulty accelerating could be due to fuel problems (such as a clogged fuel filter), dirty fuel injectors, or a faulty throttle position sensor.</t>
+  </si>
+  <si>
+    <t>Why is my car having automatic transmission problems?</t>
+  </si>
+  <si>
+    <t>Automatic transmission problems can be caused by a low transmission fluid level, dirty or burnt transmission fluid, or a faulty transmission solenoid.</t>
+  </si>
+  <si>
+    <t>Why are my brake lights not working?</t>
+  </si>
+  <si>
+    <t>The brake lights may not work due to burnt out bulbs, a blown fuse, or a faulty brake light switch.</t>
+  </si>
+  <si>
+    <t>Why does my car misfire?</t>
+  </si>
+  <si>
+    <t>Misfires can be caused by faulty spark plugs, damaged spark plug wires, or an ignition coil problem.</t>
+  </si>
+  <si>
+    <t>Why does my engine suddenly shut off while driving?</t>
+  </si>
+  <si>
+    <t>An engine that suddenly shuts down could be due to a crankshaft position sensor problem, a fuel pump problem, or a faulty engine control module.</t>
+  </si>
+  <si>
+    <t>Why does my steering wheel vibrate at low speed?</t>
+  </si>
+  <si>
+    <t>Steering wheel vibration at low speeds can be caused by warped tires, unbalanced wheels, or suspension problems.</t>
+  </si>
+  <si>
+    <t>Why is my air conditioning blowing hot air?</t>
+  </si>
+  <si>
+    <t>An air conditioner that blows hot air may be due to a low refrigerant level, a faulty compressor, or a problem with the air conditioning system (such as a clogged evaporator).</t>
+  </si>
+  <si>
+    <t>Why does my car use more fuel in the city?</t>
+  </si>
+  <si>
+    <t>Increased fuel consumption in the city may be due to frequent traffic jams, constant stopping and starting, or an engine management system that is not operating optimally.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a hammering noise?</t>
+  </si>
+  <si>
+    <t>A pounding noise in the engine can indicate a connecting rod problem, a valve problem, or a problem with insufficient lubrication.</t>
+  </si>
+  <si>
+    <t>Why is my engine emitting thick white smoke?</t>
+  </si>
+  <si>
+    <t>Thick white smoke can indicate a faulty head gasket, a crack in the engine block, or a problem with coolant entering the cylinders.</t>
+  </si>
+  <si>
+    <t>Why does my car smell like fuel inside?</t>
+  </si>
+  <si>
+    <t>A fuel smell inside the car could be due to a leak in the fuel system, a loose fuel tank cap, or damaged fuel lines.</t>
+  </si>
+  <si>
+    <t>Why is my engine idling erratically?</t>
+  </si>
+  <si>
+    <t>A rough idle can be caused by a problem with the idle sensor, a dirty air filter, or clogged fuel injectors.</t>
+  </si>
+  <si>
+    <t>Why is my horn not working?</t>
+  </si>
+  <si>
+    <t>A non-working horn may be due to a blown fuse, a faulty horn relay, or a problem with the horn button.</t>
+  </si>
+  <si>
+    <t>Why does my vehicle jerk when driving?</t>
+  </si>
+  <si>
+    <t>Smooth driving can be caused by faulty spark plugs, a clogged fuel filter, or a transmission problem.</t>
+  </si>
+  <si>
+    <t>Why does my car have difficulty going up hills?</t>
+  </si>
+  <si>
+    <t>Difficulty climbing hills may be caused by a lack of engine power, a clogged air filter, or a transmission problem.</t>
+  </si>
+  <si>
+    <t>Why is my vehicle having power steering problems?</t>
+  </si>
+  <si>
+    <t>Power steering problems can be caused by a low power steering fluid level, a faulty power steering pump, or worn steering belts.</t>
+  </si>
+  <si>
+    <t>Why does my car shake when accelerating?</t>
+  </si>
+  <si>
+    <t>Shaking when accelerating can be caused by unbalanced tires, worn CV joints, or faulty engine mounts.</t>
+  </si>
+  <si>
+    <t>Why is my engine making blowing or whistling noises?</t>
+  </si>
+  <si>
+    <t>Whooshing or hissing noises may indicate a leak in the exhaust system, a faulty intake manifold gasket, or a vacuum leak.</t>
+  </si>
+  <si>
+    <t>Why is my dashboard flashing intermittently?</t>
+  </si>
+  <si>
+    <t>Intermittent dashboard flashing can be caused by loose electrical connections, wiring problems, or a faulty alternator.</t>
+  </si>
+  <si>
+    <t>Why does my car have anti-lock brake system (ABS) problems?</t>
+  </si>
+  <si>
+    <t>ABS system problems can be caused by faulty wheel sensors, corroded electrical connections, or a faulty ABS module.</t>
+  </si>
+  <si>
+    <t>Why is my engine not running properly?</t>
+  </si>
+  <si>
+    <t>An engine that is not running properly could be caused by faulty spark plugs, clogged injectors, or a faulty crankshaft position sensor.</t>
+  </si>
+  <si>
+    <t>Why is my exhaust system noisy?</t>
+  </si>
+  <si>
+    <t>A noisy exhaust system can be caused by a perforated muffler, faulty exhaust gasket, or loose exhaust pipe fasteners.</t>
+  </si>
+  <si>
+    <t>Why does my car smell burning after driving?</t>
+  </si>
+  <si>
+    <t>A burning smell may indicate overheated brakes, a rubbing engine belt, or leaking oil or transmission fluid onto a hot engine surface.</t>
+  </si>
+  <si>
+    <t>Why is my battery draining quickly?</t>
+  </si>
+  <si>
+    <t>A battery that discharges quickly may be due to a faulty alternator, an aging battery, or electrical accessories that draw power even when the engine is off.</t>
+  </si>
+  <si>
+    <t>Why is my car having manual transmission problems?</t>
+  </si>
+  <si>
+    <t>Manual transmission problems can be caused by a worn clutch, faulty synchronizers, or insufficient transmission fluid level.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a whistling noise?</t>
+  </si>
+  <si>
+    <t>A whistling noise could indicate a vacuum leak, a worn or poorly tensioned engine belt, or a problem with the turbocharger (if there is one).</t>
+  </si>
+  <si>
+    <t>Why is my car giving off blue smoke?</t>
+  </si>
+  <si>
+    <t>Blue smoke usually indicates that the engine is burning oil, which may be due to worn piston rings, faulty valve guides, or damaged head gaskets.</t>
+  </si>
+  <si>
+    <t>Why do my windshield wipers leave streaks?</t>
+  </si>
+  <si>
+    <t>Windshield wipers that leave streaks may be caused by worn or damaged blades, a dirty windshield, or misaligned wiper arms.</t>
+  </si>
+  <si>
+    <t>Why is my handbrake not working properly?</t>
+  </si>
+  <si>
+    <t>A handbrake that is not working properly may be caused by loose or stretched handbrake cables, or worn rear brake pads.</t>
+  </si>
+  <si>
+    <t>Why does my car misfire when accelerating?</t>
+  </si>
+  <si>
+    <t>Acceleration misfires can be caused by a fuel problem, dirty spark plugs, or a faulty mass air flow sensor.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a growling noise?</t>
+  </si>
+  <si>
+    <t>A growling noise could be caused by bearing problems, a faulty water pump, or a problem with the timing belt.</t>
+  </si>
+  <si>
+    <t>Why is my car having heating problems?</t>
+  </si>
+  <si>
+    <t>Heating problems can be caused by a low coolant level, a clogged heater core, or a faulty thermostat.</t>
+  </si>
+  <si>
+    <t>Why is my car leaking oil?</t>
+  </si>
+  <si>
+    <t>An oil leak can be caused by a faulty head gasket, cracked oil pan, or worn crankshaft seals.</t>
+  </si>
+  <si>
+    <t>Why are my brakes making a clicking noise?</t>
+  </si>
+  <si>
+    <t>A slamming brake noise can be caused by loose brake pads, warped brake rotors, or loose brake calipers.</t>
+  </si>
+  <si>
+    <t>A loss of power while climbing could be due to a clogged air filter, a fuel problem, or faulty spark plugs.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a thumping noise?</t>
+  </si>
+  <si>
+    <t>A flapping noise may indicate a combustion problem, worn piston rings, or an ignition timing problem.</t>
+  </si>
+  <si>
+    <t>Why does my engine stall at idle?</t>
+  </si>
+  <si>
+    <t>An engine stalling at idle could be due to an idle sensor problem, a clogged fuel filter, or an air flow problem.</t>
+  </si>
+  <si>
+    <t>Why is my car having hot start problems?</t>
+  </si>
+  <si>
+    <t>Hot starting problems can be caused by a temperature sensor problem, a faulty starter, or an overheating fuel pump.</t>
+  </si>
+  <si>
+    <t>Why is my engine making a scratching noise?</t>
+  </si>
+  <si>
+    <t>A scraping noise may indicate bearing problems, a worn motor belt, or a problem with the starter motor.</t>
+  </si>
+  <si>
+    <t>Why does my car have central locking problems?</t>
+  </si>
+  <si>
+    <t>Central locking problems can be caused by blown fuses, faulty lock motors, or loose electrical connections.</t>
+  </si>
+  <si>
+    <t>Overheating can be caused by a low coolant level, a clogged radiator, or a faulty thermostat.</t>
+  </si>
+  <si>
+    <t>Why is my power steering hard to operate?</t>
+  </si>
+  <si>
+    <t>Hard power steering may be caused by a faulty power steering pump, a loose steering belt, or a low power steering fluid level.</t>
+  </si>
+  <si>
+    <t>Why does my car smell like gasoline?</t>
+  </si>
+  <si>
+    <t>A gasoline smell may indicate a fuel leak, faulty injectors, or a clogged fuel filter.</t>
+  </si>
+  <si>
+    <t>Why is my check engine light on?</t>
+  </si>
+  <si>
+    <t>The engine light on could be due to a faulty oxygen sensor, loose fuel cap, or an ignition system problem.</t>
+  </si>
+  <si>
+    <t>Why is my air conditioning not working?</t>
+  </si>
+  <si>
+    <t>A non-working air conditioning unit may be caused by a refrigerant leak, a faulty compressor, or clogged lines.</t>
+  </si>
+  <si>
+    <t>Vibrations at high speeds can be caused by unbalanced tires, warped rims, or worn steering ball joints.</t>
+  </si>
+  <si>
+    <t>Why does my car have cold starting problems?</t>
+  </si>
+  <si>
+    <t>Cold starting problems can be caused by a weak battery, worn spark plugs, or a clogged air filter.</t>
+  </si>
+  <si>
+    <t>A steering wheel that shakes when braking can indicate warped brake rotors, seized brake calipers, or unevenly worn brake pads.</t>
+  </si>
+  <si>
+    <t>Why does my car make clicking noises when starting?</t>
+  </si>
+  <si>
+    <t>Clacking noises when starting could be due to a low battery, loose battery cables, or faulty starter solenoids.</t>
+  </si>
+  <si>
+    <t>Why is my car losing oil?</t>
+  </si>
+  <si>
+    <t>Oil loss can be caused by worn oil pan gaskets, loose pan bolts, or leaking oil filter.</t>
+  </si>
+  <si>
+    <t>Why does my car make a metallic noise when turning?</t>
+  </si>
+  <si>
+    <t>Metallic noise when cornering could be caused by worn CV joints, faulty wheel bearings, or poorly lubricated brake calipers.</t>
+  </si>
+  <si>
+    <t>Why is my car having cruise control problems?</t>
+  </si>
+  <si>
+    <t>Cruise control problems can be caused by a faulty speed sensor, faulty control switch, or an electrical circuit problem.</t>
+  </si>
+  <si>
+    <t>Why is my car having clutch slipping problems?</t>
+  </si>
+  <si>
+    <t>A slipping clutch may be caused by a worn clutch disc, a faulty clutch release bearing, or a low clutch fluid level.</t>
+  </si>
+  <si>
+    <t>does my car make a clicking noise when starting?</t>
+  </si>
+  <si>
+    <t>A clicking noise when starting can indicate worn piston rings, worn connecting rods, or an engine lubrication problem.</t>
+  </si>
+  <si>
+    <t>Why is my car having electric starting problems?</t>
+  </si>
+  <si>
+    <t>Electric starting problems can be caused by corroded battery connections, a faulty starter, or a problem with the immobilizer system.</t>
+  </si>
+  <si>
+    <t>Why does my car make growling noises when turning the steering wheel?</t>
+  </si>
+  <si>
+    <t>Gruning noises when turning the steering wheel may indicate a faulty power steering pump, low power steering fluid level, or worn power steering lines.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with the starter turning but not starting?</t>
+  </si>
+  <si>
+    <t>A starter that turns but won't start could be caused by an ignition problem, a faulty crankshaft sensor, or a fuel problem.</t>
+  </si>
+  <si>
+    <t>Why is my car having lighting problems?</t>
+  </si>
+  <si>
+    <t>Lighting problems can be caused by burnt out bulbs, faulty fuses, or problems with the light switch.</t>
+  </si>
+  <si>
+    <t>Why is my car having unstable steering issues?</t>
+  </si>
+  <si>
+    <t>Unstable steering can be caused by worn control arms, faulty shock absorbers, or incorrect wheel alignment.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with black smoke coming from the exhaust?</t>
+  </si>
+  <si>
+    <t>Black smoke can indicate incomplete fuel combustion, often due to a clogged air filter, clogged fuel injectors, or excessive boosting.</t>
+  </si>
+  <si>
+    <t>Why is my car having vibration problems at idle?</t>
+  </si>
+  <si>
+    <t>Idle vibrations can be caused by worn engine mounts, faulty spark plugs, or clogged fuel injectors.</t>
+  </si>
+  <si>
+    <t>Why does my car have hard starting problems in hot weather?</t>
+  </si>
+  <si>
+    <t>Difficulty starting in hot weather may be due to excessive fuel vaporization, a faulty temperature sensor, or an aging fuel pump.</t>
+  </si>
+  <si>
+    <t>Why is my car having soft braking issues?</t>
+  </si>
+  <si>
+    <t>Soft braking can be caused by air in the brake system, contaminated brake fluid, or worn brake pads.</t>
+  </si>
+  <si>
+    <t>Why is my car having random starting problems?</t>
+  </si>
+  <si>
+    <t>Random starts can be caused by loose electrical connections, a faulty starter relay, or faulty safety sensors.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with turn signals not working?</t>
+  </si>
+  <si>
+    <t>Turn signals that don't work could be caused by burnt out bulbs, a faulty turn signal relay, or a problem with the turn signal switch.</t>
+  </si>
+  <si>
+    <t>Why does my car have knocking noise problems when starting?</t>
+  </si>
+  <si>
+    <t>A clicking noise during startup may indicate a lubrication problem, worn piston rings, or insufficient oil pressure.</t>
+  </si>
+  <si>
+    <t>Why is my car having flashing light issues?</t>
+  </si>
+  <si>
+    <t>Flashing lights could be due to a battery problem, a faulty alternator, or faulty system sensors.</t>
+  </si>
+  <si>
+    <t>Why does my car have fuel consumption problems?</t>
+  </si>
+  <si>
+    <t>Excess fuel consumption can be caused by a clogged air filter, faulty fuel injectors, or engine tuning problems.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with grinding noise while driving?</t>
+  </si>
+  <si>
+    <t>A grinding noise while driving could be caused by worn brake pads, loose steering ball joints, or faulty shock absorbers.</t>
+  </si>
+  <si>
+    <t>Why does my car have unstable engine speed problems?</t>
+  </si>
+  <si>
+    <t>Unstable engine speed can be caused by air intakes, dirty spark plugs, or a faulty throttle position sensor.</t>
+  </si>
+  <si>
+    <t>Why is my car having trouble starting with a gasoline smell?</t>
+  </si>
+  <si>
+    <t>Starting with a gasoline smell may be due to a fuel leak, faulty fuel injectors, or a clogged fuel evaporation system.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with power mirrors not working?</t>
+  </si>
+  <si>
+    <t>Power mirrors that don't work may be caused by blown fuses, faulty mirror motors, or loose electrical connections.</t>
+  </si>
+  <si>
+    <t>Why is my car having rough idling problems?</t>
+  </si>
+  <si>
+    <t>A rough idle can be caused by an ignition problem, faulty throttle position sensors, or an air trap in the intake manifold.</t>
+  </si>
+  <si>
+    <t>Why is my car having audio system not working issues?</t>
+  </si>
+  <si>
+    <t>Problems with an audio system not working may be due to blown fuses, a faulty amplifier, or a problem with the audio head control unit.</t>
+  </si>
+  <si>
+    <t>Why does my car have leaking cooling system problems?</t>
+  </si>
+  <si>
+    <t>A leaking cooling system can be caused by cracked radiator hoses, a damaged radiator, or loose hose clamps.</t>
+  </si>
+  <si>
+    <t>Why does my car have squeaky door problems?</t>
+  </si>
+  <si>
+    <t>Squeaky doors can be caused by loose door hinges, dry door seals, or poorly lubricated hinges.</t>
+  </si>
+  <si>
+    <t>Why is my car having catalytic converter overheating problems?</t>
+  </si>
+  <si>
+    <t>Overheating of the catalytic converter can be caused by an overly rich mixture, an ignition problem, or a clogged catalytic converter.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with brake lights on all the time?</t>
+  </si>
+  <si>
+    <t>Permanently lit brake lights could be due to low brake fluid, worn brake pads, or a faulty brake sensor.</t>
+  </si>
+  <si>
+    <t>Why is my car having starting problems with metallic clicking noises?</t>
+  </si>
+  <si>
+    <t>Metallic clicking sounds when starting can indicate a starter pre-engagement problem, worn gear teeth, or a damaged flywheel.</t>
+  </si>
+  <si>
+    <t>Why is my car having trouble starting with a clicking noise?</t>
+  </si>
+  <si>
+    <t>A clicking noise when starting can be caused by poor quality engine oil, an insufficient lubrication system, or faulty hydraulic lifters.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with clicking noises under the hood?</t>
+  </si>
+  <si>
+    <t>A clicking noise under the hood could be due to timing issues, worn valve heads, or timing belt tension issues.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with a skipping reverse gear?</t>
+  </si>
+  <si>
+    <t>Reverse skipping can be caused by worn gearbox synchros, worn shift forks, or a transmission oil level problem.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with the engine running but not accelerating?</t>
+  </si>
+  <si>
+    <t>An engine that is running but not accelerating could be due to a throttle position sensor problem, a clogged fuel filter, or a fuel pump problem.</t>
+  </si>
+  <si>
+    <t>Why does my car have squealing noise problems when braking?</t>
+  </si>
+  <si>
+    <t>A grinding noise when braking can be caused by worn brake pads, warped brake rotors, or lack of lubrication of the brake calipers.</t>
+  </si>
+  <si>
+    <t>Why is my car having trouble starting with jerking?</t>
+  </si>
+  <si>
+    <t>Jerks when starting may be due to an ignition problem, faulty spark plugs, or worn glow plug wires (diesel).</t>
+  </si>
+  <si>
+    <t>Why is my car having coolant loss problems?</t>
+  </si>
+  <si>
+    <t>Loss of coolant can be caused by a leaking radiator, faulty head gaskets, or cracked coolant lines.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with clicking noise when turning the steering wheel?</t>
+  </si>
+  <si>
+    <t>A clicking noise when turning the steering wheel can indicate worn tie rod ends, loose tie rod ends, or suspension problems.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with hard downshifting?</t>
+  </si>
+  <si>
+    <t>Difficult downshifting may be caused by worn transmission synchros, low transmission fluid level, or transmission control wiring problems.</t>
+  </si>
+  <si>
+    <t>Why is my car having starting problems with clicking noises?</t>
+  </si>
+  <si>
+    <t>Clacking noises when starting could be due to a starter problem, worn drive gear teeth, or a damaged flywheel.</t>
+  </si>
+  <si>
+    <t>Why does my car have suspension grinding noise problems?</t>
+  </si>
+  <si>
+    <t>A grinding noise in suspension can be caused by worn shock absorbers, faulty suspension springs, or dry suspension mounting rubbers.</t>
+  </si>
+  <si>
+    <t>Why is my car having power loss issues at high speeds?</t>
+  </si>
+  <si>
+    <t>Loss of power at high speeds may be due to a fuel problem, a clogged air filter, or faulty turbochargers (if equipped).</t>
+  </si>
+  <si>
+    <t>Why does my car have clicking noise problems when cold?</t>
+  </si>
+  <si>
+    <t>A clicking noise when cold can indicate lubrication problems, faulty hydraulic lifters, or a lack of adequate engine oil when starting.</t>
+  </si>
+  <si>
+    <t>Why is my car having starting problems with gasoline smells?</t>
+  </si>
+  <si>
+    <t>Gasoline odors when starting can be caused by a faulty fuel injection system, loose carburetor seals, or excessive fuel pressure.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with rubbing noise while driving?</t>
+  </si>
+  <si>
+    <t>A grinding noise while driving can be caused by worn wheel bearings, warped brake rotors, or poorly adjusted brake pads.</t>
+  </si>
+  <si>
+    <t>Why does my car have clicking noise problems when accelerating?</t>
+  </si>
+  <si>
+    <t>A clicking noise when accelerating can indicate transmission problems, faulty CV joints, or transmission misalignment.</t>
+  </si>
+  <si>
+    <t>Why does my car have engine overheating problems in the city?</t>
+  </si>
+  <si>
+    <t>Engine overheating in the city may be due to insufficient air circulation, a faulty cooling fan, or clogged cooling lines.</t>
+  </si>
+  <si>
+    <t>Why does my car have knocking noise problems when accelerating?</t>
+  </si>
+  <si>
+    <t>A clicking noise when accelerating can be caused by improper engine tuning, overheating, or worn piston rings.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with mirrors going out of adjustment?</t>
+  </si>
+  <si>
+    <t>Mirrors that go out of adjustment may be caused by faulty mirror motors, loose electrical connections, or faulty mirror switches.</t>
+  </si>
+  <si>
+    <t>Why does my car have intermittent hot start problems?</t>
+  </si>
+  <si>
+    <t>Intermittent hot starts can be caused by faulty engine temperature sensors, a fuel vaporization problem, or a faulty engine control module.</t>
+  </si>
+  <si>
+    <t>Why does my car have clicking noise problems when driving on uneven roads?</t>
+  </si>
+  <si>
+    <t>A clicking noise while driving on uneven roads may be due to worn shock absorbers, loose stabilizer bar links, or faulty suspension rubbers.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with the door not staying open?</t>
+  </si>
+  <si>
+    <t>Door adjustments that do not stay open may be due to loose door hinges, worn hinges, or a problem with lubrication of the locking mechanisms.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with clicking noises when going over bumps?</t>
+  </si>
+  <si>
+    <t>A clicking noise when going over bumps can indicate loose stabilizer bars, faulty suspension springs, or worn shock absorbers.</t>
+  </si>
+  <si>
+    <t>Why does my car have squealing problems when braking in reverse?</t>
+  </si>
+  <si>
+    <t>A squealing sound when braking in reverse could be caused by worn brake pads, dirty brake rotors, or seized brake calipers.</t>
+  </si>
+  <si>
+    <t>Why does my car have vibration problems when cornering?</t>
+  </si>
+  <si>
+    <t>Cornering vibrations can be caused by worn tires, faulty wheel bearings, or wheel balancing problems.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with the steering pulling to one side?</t>
+  </si>
+  <si>
+    <t>Steering that pulls to one side may be due to incorrect wheel alignment, underinflated tires, or worn suspension arms.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with squealing noise when braking suddenly?</t>
+  </si>
+  <si>
+    <t>A grinding noise when braking suddenly can be caused by worn brake pads, warped brake rotors, or poorly lubricated brake calipers.</t>
+  </si>
+  <si>
+    <t>Why does my car have whistling noise problems when accelerating?</t>
+  </si>
+  <si>
+    <t>A whistling noise while accelerating may indicate an air leak in the intake system, a loose accessory belt, or a faulty turbocharger.</t>
+  </si>
+  <si>
+    <t>Why does my car have problems with clicking noise when changing gears?</t>
+  </si>
+  <si>
+    <t>A clicking noise when changing gears can be caused by worn transmission synchronizers, low transmission fluid level, or transmission timing problems.</t>
+  </si>
+  <si>
+    <t>Why is my car having starting problems with a clicking noise from the engine?</t>
+  </si>
+  <si>
+    <t>A knocking noise when starting could be due to poor fuel quality, a preheating problem (diesel), or engine compression problems.</t>
+  </si>
+  <si>
+    <t>Why is my car having problems with a fast-draining battery?</t>
+  </si>
+  <si>
+    <t>A battery that discharges quickly can be caused by electrical accessories left on, a faulty alternator, or an aging battery.</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +2321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1446,11 +2336,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1463,6 +2425,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,460 +3971,1453 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BDA86B-DD1D-4F7F-BA13-E007FCB498E3}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-    </row>
-    <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-    </row>
-    <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-    </row>
-    <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-    </row>
-    <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-    </row>
-    <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-    </row>
-    <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-    </row>
-    <row r="192" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-    </row>
-    <row r="195" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-    </row>
-    <row r="198" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
-    </row>
-    <row r="204" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
-    </row>
-    <row r="207" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
-    </row>
-    <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
-    </row>
-    <row r="210" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
-    </row>
-    <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
-    </row>
-    <row r="215" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
-    </row>
-    <row r="216" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
-    </row>
-    <row r="219" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
-    </row>
-    <row r="222" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
-    </row>
-    <row r="225" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
-    </row>
-    <row r="228" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
-    </row>
-    <row r="231" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
-    </row>
-    <row r="233" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
-    </row>
-    <row r="234" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
-    </row>
-    <row r="236" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
-    </row>
-    <row r="237" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
-    </row>
-    <row r="238" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
-    </row>
-    <row r="239" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-    </row>
-    <row r="240" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
-    </row>
-    <row r="242" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
-    </row>
-    <row r="245" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
-    </row>
-    <row r="246" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
-    </row>
-    <row r="248" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
-    </row>
-    <row r="250" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
-    </row>
-    <row r="251" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="2"/>
-      <c r="B251" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC60B94-EF97-4749-98E8-98A148CF2350}">
+  <dimension ref="A1:B151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94D7F56-7920-4CD4-A496-AC14AB6A6106}">
   <dimension ref="A1:B100"/>
   <sheetViews>
